--- a/diagrama_exemplo.xlsx
+++ b/diagrama_exemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\python\relationshipdiagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33058669-729B-4214-B7DC-8A6687F7C4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108172C7-39E8-4F70-8B96-BBA911A82B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atores" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,6 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhVfsCIF0qyl4y01zIvWS2X8FsNBw=="/>
     </ext>
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>ator</t>
   </si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>Preto</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Negativo</t>
@@ -572,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -601,13 +592,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
@@ -615,91 +603,88 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="H6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="H7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
       <c r="H9" s="9" t="s">
@@ -708,25 +693,28 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
       <c r="H12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E852"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1837,274 +1825,274 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2991,10 +2979,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3003,13 +2991,13 @@
         <v>CS / OPM</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,10 +3006,10 @@
         <v>Laranja</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3031,7 +3019,7 @@
         <v>Limão</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,7 +3028,7 @@
         <v>Maçã</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3049,7 +3037,7 @@
         <v>Minoria\nLimonense</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3058,7 +3046,7 @@
         <v>OIA</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,7 +3064,7 @@
         <v>Urso</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3085,7 +3073,7 @@
         <v/>
       </c>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3094,7 +3082,7 @@
         <v/>
       </c>
       <c r="C12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
